--- a/data/trans_dic/P70B_R2_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P70B_R2_2023-Estudios-trans_dic.xlsx
@@ -581,13 +581,13 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.05444654210695012</v>
+        <v>0.0579225964272042</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.0683811798381177</v>
+        <v>0.07241500563446431</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.077471329535294</v>
+        <v>0.07085052960245145</v>
       </c>
     </row>
     <row r="6">
@@ -598,13 +598,13 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.1768793919058079</v>
+        <v>0.171813616904206</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2009323564986553</v>
+        <v>0.2031903856345997</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.1620727961388727</v>
+        <v>0.1647049829785117</v>
       </c>
     </row>
     <row r="7">
@@ -619,7 +619,7 @@
         </is>
       </c>
       <c r="C7" s="5" t="n">
-        <v>0.1775096268014446</v>
+        <v>0.1775096268014445</v>
       </c>
       <c r="D7" s="5" t="n">
         <v>0.159925025008318</v>
@@ -636,13 +636,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.152596012818553</v>
+        <v>0.1541872004026907</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1398367045697169</v>
+        <v>0.1402319515764675</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.1533552374124796</v>
+        <v>0.1552200227858004</v>
       </c>
     </row>
     <row r="9">
@@ -653,13 +653,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2030088501819549</v>
+        <v>0.2055830522224176</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1835601690946252</v>
+        <v>0.1839091328405699</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1869985368347538</v>
+        <v>0.1878408697179353</v>
       </c>
     </row>
     <row r="10">
@@ -674,7 +674,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.07986225946548416</v>
+        <v>0.07986225946548417</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.1204613621437292</v>
@@ -691,13 +691,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.05324807300235729</v>
+        <v>0.05495747628968675</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.09383496384704271</v>
+        <v>0.09613005828741972</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08139649332922179</v>
+        <v>0.08112058841140123</v>
       </c>
     </row>
     <row r="12">
@@ -708,13 +708,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1138613270076437</v>
+        <v>0.1171356805238931</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1478936412629493</v>
+        <v>0.1502680057990428</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.1208943714498633</v>
+        <v>0.1230692845960468</v>
       </c>
     </row>
     <row r="13">
@@ -746,13 +746,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.127662594936901</v>
+        <v>0.1275615252329916</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1282262035171632</v>
+        <v>0.1292199356907386</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.1335353519700425</v>
+        <v>0.1331779679851656</v>
       </c>
     </row>
     <row r="15">
@@ -763,13 +763,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1677160253861512</v>
+        <v>0.1645549112871096</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.161699777644453</v>
+        <v>0.1621504562170484</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.1601289431511679</v>
+        <v>0.1595966531664504</v>
       </c>
     </row>
     <row r="16">
@@ -910,13 +910,13 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>8773</v>
+        <v>9333</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>5788</v>
+        <v>6130</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>19041</v>
+        <v>17414</v>
       </c>
     </row>
     <row r="7">
@@ -927,13 +927,13 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>28502</v>
+        <v>27685</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>17009</v>
+        <v>17200</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>39835</v>
+        <v>40482</v>
       </c>
     </row>
     <row r="8">
@@ -982,13 +982,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>191987</v>
+        <v>193989</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>130098</v>
+        <v>130465</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>335617</v>
+        <v>339698</v>
       </c>
     </row>
     <row r="11">
@@ -999,13 +999,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>255413</v>
+        <v>258652</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>170776</v>
+        <v>171101</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>409245</v>
+        <v>411088</v>
       </c>
     </row>
     <row r="12">
@@ -1054,13 +1054,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>25567</v>
+        <v>26388</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>44854</v>
+        <v>45951</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>77991</v>
+        <v>77727</v>
       </c>
     </row>
     <row r="15">
@@ -1071,13 +1071,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>54671</v>
+        <v>56244</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>70694</v>
+        <v>71829</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>115836</v>
+        <v>117920</v>
       </c>
     </row>
     <row r="16">
@@ -1126,13 +1126,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>242486</v>
+        <v>242294</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>191443</v>
+        <v>192927</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>453011</v>
+        <v>451798</v>
       </c>
     </row>
     <row r="19">
@@ -1143,13 +1143,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>318565</v>
+        <v>312561</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>241419</v>
+        <v>242092</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>543228</v>
+        <v>541422</v>
       </c>
     </row>
     <row r="20">
